--- a/LiteratureAnalysis/data/Data_flow/dataset_others 2.xlsx
+++ b/LiteratureAnalysis/data/Data_flow/dataset_others 2.xlsx
@@ -12,14 +12,18 @@
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19422" windowHeight="10422"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <pivotCaches>
+    <pivotCache cacheId="5" r:id="rId3"/>
+  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="887">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="894">
   <si>
     <t>DOI</t>
   </si>
@@ -2823,6 +2827,27 @@
   <si>
     <t>FLOW</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>行标签</t>
+  </si>
+  <si>
+    <t>F+P</t>
+  </si>
+  <si>
+    <t>I+F</t>
+  </si>
+  <si>
+    <t>I+P</t>
+  </si>
+  <si>
+    <t>(空白)</t>
+  </si>
+  <si>
+    <t>总计</t>
+  </si>
+  <si>
+    <t>计数项:FLOW</t>
   </si>
 </sst>
 </file>
@@ -2919,7 +2944,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2932,6 +2957,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2947,6 +2977,721 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="admin" refreshedDate="43735.612509837963" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="201">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="N1:N1048576" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="1">
+    <cacheField name="FLOW" numFmtId="0">
+      <sharedItems containsBlank="1" count="11">
+        <s v="I"/>
+        <s v="P+I"/>
+        <s v="P"/>
+        <s v="none"/>
+        <s v="F"/>
+        <s v="I+F"/>
+        <s v="P+F"/>
+        <s v=" none"/>
+        <s v="I+P"/>
+        <s v="F+P"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="201">
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="1">
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="12">
+        <item x="7"/>
+        <item x="4"/>
+        <item x="9"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="12">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="计数项:FLOW" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3236,10 +3981,141 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:B15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:B5"/>
+      <pivotSelection pane="bottomRight" showHeader="1" extendable="1" axis="axisRow" start="1" max="12" activeRow="4" previousRow="4" click="1" r:id="rId1">
+        <pivotArea dataOnly="0" fieldPosition="0">
+          <references count="1">
+            <reference field="0" count="1">
+              <x v="1"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotSelection>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="9.15625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.3125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="8" t="s">
+        <v>887</v>
+      </c>
+      <c r="B3" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="9" t="s">
+        <v>882</v>
+      </c>
+      <c r="B4" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" s="9" t="s">
+        <v>880</v>
+      </c>
+      <c r="B5" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" s="9" t="s">
+        <v>888</v>
+      </c>
+      <c r="B6" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" s="9" t="s">
+        <v>777</v>
+      </c>
+      <c r="B7" s="10">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" s="9" t="s">
+        <v>889</v>
+      </c>
+      <c r="B8" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" s="9" t="s">
+        <v>890</v>
+      </c>
+      <c r="B9" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" s="9" t="s">
+        <v>778</v>
+      </c>
+      <c r="B10" s="10">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" s="9" t="s">
+        <v>779</v>
+      </c>
+      <c r="B11" s="10">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" s="9" t="s">
+        <v>781</v>
+      </c>
+      <c r="B12" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13" s="9" t="s">
+        <v>780</v>
+      </c>
+      <c r="B13" s="10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14" s="9" t="s">
+        <v>891</v>
+      </c>
+      <c r="B14" s="10"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15" s="9" t="s">
+        <v>892</v>
+      </c>
+      <c r="B15" s="10">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
